--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Ret</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H2">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.917113</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N2">
-        <v>5.751339</v>
+        <v>12.985486</v>
       </c>
       <c r="O2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q2">
-        <v>1.931119427578</v>
+        <v>0.9140902016615555</v>
       </c>
       <c r="R2">
-        <v>17.380074848202</v>
+        <v>8.226811814953999</v>
       </c>
       <c r="S2">
-        <v>0.07913928709831226</v>
+        <v>0.04029955670992744</v>
       </c>
       <c r="T2">
-        <v>0.07913928709831224</v>
+        <v>0.04029955670992743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H3">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>22.084618</v>
       </c>
       <c r="O3">
-        <v>0.5171664651239829</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P3">
-        <v>0.5171664651239828</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q3">
-        <v>7.415322739702667</v>
+        <v>1.554607422566889</v>
       </c>
       <c r="R3">
-        <v>66.73790465732399</v>
+        <v>13.991466803102</v>
       </c>
       <c r="S3">
-        <v>0.3038876554413771</v>
+        <v>0.06853808286482957</v>
       </c>
       <c r="T3">
-        <v>0.3038876554413771</v>
+        <v>0.06853808286482956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H4">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I4">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J4">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,39 +679,39 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.955718666666667</v>
+        <v>6.912382333333333</v>
       </c>
       <c r="N4">
-        <v>14.867156</v>
+        <v>20.737147</v>
       </c>
       <c r="O4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="P4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="Q4">
-        <v>4.991925147245333</v>
+        <v>1.459754597025889</v>
       </c>
       <c r="R4">
-        <v>44.927326325208</v>
+        <v>13.137791373233</v>
       </c>
       <c r="S4">
-        <v>0.2045742960064423</v>
+        <v>0.06435629991273346</v>
       </c>
       <c r="T4">
-        <v>0.2045742960064423</v>
+        <v>0.06435629991273345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3383276666666666</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H5">
-        <v>1.014983</v>
+        <v>0.633539</v>
       </c>
       <c r="I5">
-        <v>0.1973598449406199</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J5">
-        <v>0.1973598449406199</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.917113</v>
+        <v>0.012811</v>
       </c>
       <c r="N5">
-        <v>5.751339</v>
+        <v>0.038433</v>
       </c>
       <c r="O5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562394</v>
       </c>
       <c r="P5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562392</v>
       </c>
       <c r="Q5">
-        <v>0.6486123680263333</v>
+        <v>0.002705422709666667</v>
       </c>
       <c r="R5">
-        <v>5.837511312237</v>
+        <v>0.024348804387</v>
       </c>
       <c r="S5">
-        <v>0.0265808109409012</v>
+        <v>0.0001192741544700477</v>
       </c>
       <c r="T5">
-        <v>0.02658081094090119</v>
+        <v>0.0001192741544700476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3383276666666666</v>
+        <v>1.007306</v>
       </c>
       <c r="H6">
-        <v>1.014983</v>
+        <v>3.021918</v>
       </c>
       <c r="I6">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J6">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.361539333333333</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N6">
-        <v>22.084618</v>
+        <v>12.985486</v>
       </c>
       <c r="O6">
-        <v>0.5171664651239829</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P6">
-        <v>0.5171664651239828</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q6">
-        <v>2.490612425721555</v>
+        <v>4.360119320238667</v>
       </c>
       <c r="R6">
-        <v>22.415511831494</v>
+        <v>39.241073882148</v>
       </c>
       <c r="S6">
-        <v>0.1020678933653578</v>
+        <v>0.192224876154034</v>
       </c>
       <c r="T6">
-        <v>0.1020678933653578</v>
+        <v>0.1922248761540339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3383276666666666</v>
+        <v>1.007306</v>
       </c>
       <c r="H7">
-        <v>1.014983</v>
+        <v>3.021918</v>
       </c>
       <c r="I7">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J7">
-        <v>0.1973598449406199</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,214 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.955718666666667</v>
+        <v>7.361539333333333</v>
       </c>
       <c r="N7">
-        <v>14.867156</v>
+        <v>22.084618</v>
       </c>
       <c r="O7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q7">
-        <v>1.676656733149778</v>
+        <v>7.415322739702667</v>
       </c>
       <c r="R7">
-        <v>15.089910598348</v>
+        <v>66.73790465732401</v>
       </c>
       <c r="S7">
-        <v>0.06871114063436096</v>
+        <v>0.3269198364973901</v>
       </c>
       <c r="T7">
-        <v>0.06871114063436096</v>
+        <v>0.3269198364973901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3686343333333333</v>
+        <v>1.007306</v>
       </c>
       <c r="H8">
-        <v>1.105903</v>
+        <v>3.021918</v>
       </c>
       <c r="I8">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J8">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.917113</v>
+        <v>6.912382333333333</v>
       </c>
       <c r="N8">
-        <v>5.751339</v>
+        <v>20.737147</v>
       </c>
       <c r="O8">
-        <v>0.1346819610083227</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="P8">
-        <v>0.1346819610083227</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="Q8">
-        <v>0.7067136726796667</v>
+        <v>6.962884198660667</v>
       </c>
       <c r="R8">
-        <v>6.360423054117001</v>
+        <v>62.66595778794601</v>
       </c>
       <c r="S8">
-        <v>0.0289618629691093</v>
+        <v>0.3069731478562294</v>
       </c>
       <c r="T8">
-        <v>0.02896186296910929</v>
+        <v>0.3069731478562294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.007306</v>
+      </c>
+      <c r="H9">
+        <v>3.021918</v>
+      </c>
+      <c r="I9">
+        <v>0.8266867863580396</v>
+      </c>
+      <c r="J9">
+        <v>0.8266867863580396</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.3686343333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.105903</v>
-      </c>
-      <c r="I9">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="J9">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>7.361539333333333</v>
+        <v>0.012811</v>
       </c>
       <c r="N9">
-        <v>22.084618</v>
+        <v>0.038433</v>
       </c>
       <c r="O9">
-        <v>0.5171664651239829</v>
+        <v>0.0006882000048562394</v>
       </c>
       <c r="P9">
-        <v>0.5171664651239828</v>
+        <v>0.0006882000048562392</v>
       </c>
       <c r="Q9">
-        <v>2.713716144450444</v>
+        <v>0.012904597166</v>
       </c>
       <c r="R9">
-        <v>24.423445300054</v>
+        <v>0.116141374494</v>
       </c>
       <c r="S9">
-        <v>0.111210916317248</v>
+        <v>0.0005689258503861918</v>
       </c>
       <c r="T9">
-        <v>0.1112109163172479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.3686343333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.105903</v>
-      </c>
-      <c r="I10">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="J10">
-        <v>0.2150389165132484</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.955718666666667</v>
-      </c>
-      <c r="N10">
-        <v>14.867156</v>
-      </c>
-      <c r="O10">
-        <v>0.3481515738676944</v>
-      </c>
-      <c r="P10">
-        <v>0.3481515738676944</v>
-      </c>
-      <c r="Q10">
-        <v>1.826848046874222</v>
-      </c>
-      <c r="R10">
-        <v>16.441632421868</v>
-      </c>
-      <c r="S10">
-        <v>0.07486613722689119</v>
-      </c>
-      <c r="T10">
-        <v>0.07486613722689117</v>
+        <v>0.0005689258503861917</v>
       </c>
     </row>
   </sheetData>
